--- a/progetto finale 2 Mario.xlsx
+++ b/progetto finale 2 Mario.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11EA9A3-099F-47D9-9F64-DA8133DCE9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E86E3A-9C6D-431E-A886-5550422FE094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -999,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1167,7 +1167,7 @@
   <dimension ref="B1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
